--- a/bots/crawl_ch/output/electronics_2022-07-27.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-07-27.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -652,50 +652,48 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4488074</t>
+          <t>5920020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück</t>
+          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/basic-alkaline-batterien-lr6aa-12-stueck/p/5920020</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>0.83/1ST</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -705,7 +703,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -715,58 +713,60 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
+          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5920020</t>
+          <t>4488074</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück</t>
+          <t>Varta Knopfzellen CR2032 2 Stück</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/basic-alkaline-batterien-lr6aa-12-stueck/p/5920020</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2032-2-stueck/p/4488074</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.83/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -786,17 +786,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>BASIC Alkaline Batterien LR6/AA, 12 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2032 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1232,50 +1232,48 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4905482</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1285,7 +1283,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1295,34 +1293,34 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6153846</t>
+          <t>4905482</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
+          <t>Alkaline Batterie LR14/C 2 Stück</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-lr14c-2-stueck/p/4905482</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1331,24 +1329,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1358,7 +1356,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1373,29 +1371,29 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
+          <t>Alkaline Batterie LR14/C 2 Stück 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1439,34 +1437,34 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4949707</t>
+          <t>6153846</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2032-3v-2-stueck/p/6153846</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1474,23 +1472,25 @@
           <t>2ST</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1515,34 +1515,34 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2032 3V 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>4949707</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Varta Knopfzellen CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-knopfzellen-cr2025-2-stueck/p/4949707</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1556,12 +1556,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1581,17 +1581,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Varta Knopfzellen CR2025 2 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2094,50 +2094,48 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6761134</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2147,7 +2145,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2162,53 +2160,55 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6761134</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-dlr20-2-stueck/p/6761134</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS D/LR20 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4922,7 +4922,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5148,7 +5148,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6019,7 +6019,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-27 08:47:56</t>
+          <t>2022-07-27 20:56:49</t>
         </is>
       </c>
     </row>
